--- a/Table S2_Station_names_and_SSN.xlsx
+++ b/Table S2_Station_names_and_SSN.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="1367">
   <si>
-    <t>Table S2 Name List and SSN for Western China Strong Motion Stations, Last updated: September 7, 2021</t>
+    <t>Table S2 Name List and SSN for Western China Strong Motion Stations, Last updated: December 3, 2021</t>
   </si>
   <si>
     <t>SSN</t>
@@ -1069,7 +1069,7 @@
     <t>53XHD</t>
   </si>
   <si>
-    <t>Xiaoyunhedian</t>
+    <t>Xiangyunhedian</t>
   </si>
   <si>
     <t>53YPX</t>
@@ -4122,12 +4122,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -4170,16 +4170,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4187,7 +4201,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4200,8 +4221,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4214,8 +4236,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4230,41 +4292,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4277,38 +4308,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4323,19 +4323,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4353,7 +4401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4365,13 +4413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4383,7 +4425,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4395,67 +4485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4467,43 +4497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4605,20 +4605,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4638,26 +4650,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4677,28 +4685,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4710,10 +4710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4722,16 +4722,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4740,115 +4740,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4878,7 +4878,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4887,10 +4887,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5247,10 +5247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K680"/>
+  <dimension ref="A1:J680"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -5275,7 +5275,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="40.35" spans="1:11">
+    <row r="2" s="1" customFormat="1" ht="40.35" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5300,7 +5300,6 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="7">
